--- a/006_doc/项目暨人力内部采购供应对接系统/5、工时月报样例（项目暨人力内部采购供应对接系统）.xlsx
+++ b/006_doc/项目暨人力内部采购供应对接系统/5、工时月报样例（项目暨人力内部采购供应对接系统）.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="264">
   <si>
     <t>工号</t>
   </si>
@@ -791,36 +791,6 @@
     <t>项目暨人力内部采购供应对接系统</t>
   </si>
   <si>
-    <t>B-23962</t>
-  </si>
-  <si>
-    <t>王咏</t>
-  </si>
-  <si>
-    <t>B-26113</t>
-  </si>
-  <si>
-    <t>熊峰</t>
-  </si>
-  <si>
-    <t>B-32240</t>
-  </si>
-  <si>
-    <t>袁玉蓉</t>
-  </si>
-  <si>
-    <t>B-25486</t>
-  </si>
-  <si>
-    <t>王仁炜</t>
-  </si>
-  <si>
-    <t>B-33664</t>
-  </si>
-  <si>
-    <t>伍跃进</t>
-  </si>
-  <si>
     <t>B-25577</t>
   </si>
   <si>
@@ -849,6 +819,196 @@
   </si>
   <si>
     <t>张琦</t>
+  </si>
+  <si>
+    <t>B-35681</t>
+  </si>
+  <si>
+    <t>何云</t>
+  </si>
+  <si>
+    <t>B-29882</t>
+  </si>
+  <si>
+    <t>魏瑞江</t>
+  </si>
+  <si>
+    <t>B-25782</t>
+  </si>
+  <si>
+    <t>吴承合</t>
+  </si>
+  <si>
+    <t>B-35524</t>
+  </si>
+  <si>
+    <t>徐佳</t>
+  </si>
+  <si>
+    <t>B-28055</t>
+  </si>
+  <si>
+    <t>李辉</t>
+  </si>
+  <si>
+    <t>B-30964</t>
+  </si>
+  <si>
+    <t>魏彩香</t>
+  </si>
+  <si>
+    <t>B-31989</t>
+  </si>
+  <si>
+    <t>毕晨露</t>
+  </si>
+  <si>
+    <t>B-27471</t>
+  </si>
+  <si>
+    <t>夏春妹</t>
+  </si>
+  <si>
+    <t>项目管理高级顾问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务分析人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理，项目管理专家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统分析师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统环境技术顾问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境支持</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务分析及推广</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI架构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-27748</t>
+  </si>
+  <si>
+    <t>李亚楠</t>
+  </si>
+  <si>
+    <t>B-35634</t>
+  </si>
+  <si>
+    <t>曹拴拴</t>
+  </si>
+  <si>
+    <t>B-27216</t>
+  </si>
+  <si>
+    <t>孙钰璇</t>
+  </si>
+  <si>
+    <t>B-26461</t>
+  </si>
+  <si>
+    <t>李川</t>
+  </si>
+  <si>
+    <t>B-13835</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>B-27016</t>
+  </si>
+  <si>
+    <t>章娟</t>
+  </si>
+  <si>
+    <t>B-35299</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>B-25328</t>
+  </si>
+  <si>
+    <t>江恒硕</t>
+  </si>
+  <si>
+    <t>B-33774</t>
+  </si>
+  <si>
+    <t>邓涛</t>
+  </si>
+  <si>
+    <t>B-23703</t>
+  </si>
+  <si>
+    <t>张石宇</t>
+  </si>
+  <si>
+    <t>B-32171</t>
+  </si>
+  <si>
+    <t>彭立民</t>
+  </si>
+  <si>
+    <t>B-15038</t>
+  </si>
+  <si>
+    <t>韦光进</t>
+  </si>
+  <si>
+    <t>B-20474</t>
+  </si>
+  <si>
+    <t>冼洪钦</t>
+  </si>
+  <si>
+    <t>B-28471</t>
+  </si>
+  <si>
+    <t>邓根强</t>
+  </si>
+  <si>
+    <t>B-35842</t>
+  </si>
+  <si>
+    <t>王飞</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="A22" sqref="A22:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,17 +1621,15 @@
       <c r="D3" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+      <c r="J3" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>69</v>
@@ -1490,20 +1648,18 @@
       <c r="D4" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>42</v>
+      <c r="J4" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1519,17 +1675,15 @@
       <c r="D5" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+      <c r="J5" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>70</v>
@@ -1548,20 +1702,18 @@
       <c r="D6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+      <c r="J6" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1577,20 +1729,18 @@
       <c r="D7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+      <c r="J7" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1606,20 +1756,18 @@
       <c r="D8" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+      <c r="J8" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1635,20 +1783,18 @@
       <c r="D9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+      <c r="J9" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1664,20 +1810,18 @@
       <c r="D10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+      <c r="J10" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1693,20 +1837,18 @@
       <c r="D11" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+      <c r="J11" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1722,20 +1864,219 @@
       <c r="D12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+      <c r="J12" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/006_doc/项目暨人力内部采购供应对接系统/5、工时月报样例（项目暨人力内部采购供应对接系统）.xlsx
+++ b/006_doc/项目暨人力内部采购供应对接系统/5、工时月报样例（项目暨人力内部采购供应对接系统）.xlsx
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8月工时记录表'!$A$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9月工时记录表'!$A$2:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="100">
   <si>
     <t>工号</t>
   </si>
@@ -71,22 +71,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>研发中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚志红</t>
-  </si>
-  <si>
-    <t>冯雁</t>
-  </si>
-  <si>
-    <t>沈志鹏</t>
-  </si>
-  <si>
-    <t>刘秋岭</t>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -111,9 +95,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>胡亮</t>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -138,15 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>严建军</t>
-  </si>
-  <si>
-    <t>王小龙</t>
-  </si>
-  <si>
-    <t>黄丽伟</t>
-  </si>
-  <si>
     <t>公司主体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,63 +135,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>田文谦</t>
-  </si>
-  <si>
-    <t>陈青</t>
-  </si>
-  <si>
-    <t>许林</t>
-  </si>
-  <si>
-    <t>胡光</t>
-  </si>
-  <si>
-    <t>谢振波</t>
-  </si>
-  <si>
-    <t>杜辉</t>
-  </si>
-  <si>
-    <t>丁润</t>
-  </si>
-  <si>
     <t>BSM管理方法研究及培训</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BJS运营变革研究及培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理专家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理专家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力资源型外包项目变革研究</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部系统环境支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息系统监理师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>系统架构师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>系统分析师、前端架构师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>BI架构师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -228,10 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>测试工程师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -240,54 +159,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>项目经理、需求分析师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求收集、需求分析、概要设计、界面布局设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求理解、编写集成测试用例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析、概要设计、整体界面设计、前端架构设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部系统环境支持、外部接口和逻辑培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>需求理解、详细设计</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>需求理解、详细设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求理解、详细设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>需求理解、框架选型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>服务端架构设计、服务端框架选型、范例代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模型开发、数据访问层开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>需求理解、业务数据库设计</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -308,62 +187,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>系统总体架构设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端核心功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端核心功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI设计与开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>学术研究，运营流程定位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理变革实验，产品设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统外部环境指导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求整理、项目管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方法研究及培训，实验项目协调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BJS运营变革研究及培训，实验运营部门协调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方式人工执行实验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>需求理解、编写测试计划</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -372,386 +199,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>权限控制功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端组件开发、设计审核、代码审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端核心代码升级、SSO接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力地图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力资源维护功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目注册表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目列表功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门维护功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI数据库设计、基础数据导入功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI系统设计、外部接口实验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信、邮件警告接口实验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求控制、项目管理、报表设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端Rest框架开发、代码审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM基数配置功能开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单客户端功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单维护功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM报表查询功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM分配客户端功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM分配服务端功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员退出项目时间服务端开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员退出项目时间客户端开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求理解、编写集成测试用例、冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求理解、编写测试计划、冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI服务群部署安装和远程访问实验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据仓库结构设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE计算、退出项目时间预警逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源团队综合产能报表客户端端功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成本使用状况报表服务端功能开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成本使用状况报表客户端功能开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源团队综合产能报表服务端功能开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成本使用状况数据仓库实现、资源团队综合产能数据仓库实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块测试用模拟数据准备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写集成测试用例、冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写测试计划、冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求控制、项目管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方式人工执行实验，需求变更收集</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部系统环境支持、人资系统协调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部系统环境支持、流程技术接口协调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部系统环境支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金计算ETL功能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金计算服务端访问层实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM确认功能实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金审核视图功能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金明细跟踪报表功能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统导出公共功能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各表格、报表导出功能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试、回归测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试、回归测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块测试用例设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试debug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块模拟数据测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块模拟数据测试debug、集成测试debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计审核、代码审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块模拟数据测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端组件开发、设计审核、代码审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端组件开发、设计审核、代码审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI模块真实数据测试、BI测试报告审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测组织工作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测外部系统环境支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境安装、部署、维护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求控制、公测现场支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测现场业务支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方法研究及培训，实验项目协调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方法研究、产品功能公司交付部门内宣讲、培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方法研究、产品功能公司交付相关部门宣讲、培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM管理方法研究、产品功能公司交付部门内宣讲、培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下年度变革规划</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求控制、项目管理、下年度项目规划</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测技术支持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测debug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测debug</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测现场业务培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下年度变革规划、年度产品开发总结、年度项目管理变革总结</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境BI安装、部署、维护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-28709</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-15550</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-33449</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-19252</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-28949</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-34548</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-23894</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-17268</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-29615</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-33274</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-33966</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-26026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-3044</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2017年 1 月研发人员工时情况统计表</t>
   </si>
   <si>
@@ -921,94 +368,36 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B-27748</t>
-  </si>
-  <si>
-    <t>李亚楠</t>
-  </si>
-  <si>
-    <t>B-35634</t>
-  </si>
-  <si>
-    <t>曹拴拴</t>
-  </si>
-  <si>
-    <t>B-27216</t>
-  </si>
-  <si>
-    <t>孙钰璇</t>
-  </si>
-  <si>
-    <t>B-26461</t>
-  </si>
-  <si>
-    <t>李川</t>
-  </si>
-  <si>
-    <t>B-13835</t>
-  </si>
-  <si>
-    <t>李丹</t>
-  </si>
-  <si>
-    <t>B-27016</t>
-  </si>
-  <si>
-    <t>章娟</t>
-  </si>
-  <si>
-    <t>B-35299</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>B-25328</t>
-  </si>
-  <si>
-    <t>江恒硕</t>
-  </si>
-  <si>
-    <t>B-33774</t>
-  </si>
-  <si>
-    <t>邓涛</t>
-  </si>
-  <si>
-    <t>B-23703</t>
-  </si>
-  <si>
-    <t>张石宇</t>
-  </si>
-  <si>
-    <t>B-32171</t>
-  </si>
-  <si>
-    <t>彭立民</t>
-  </si>
-  <si>
-    <t>B-15038</t>
-  </si>
-  <si>
-    <t>韦光进</t>
-  </si>
-  <si>
-    <t>B-20474</t>
-  </si>
-  <si>
-    <t>冼洪钦</t>
-  </si>
-  <si>
-    <t>B-28471</t>
-  </si>
-  <si>
-    <t>邓根强</t>
-  </si>
-  <si>
-    <t>B-35842</t>
-  </si>
-  <si>
-    <t>王飞</t>
+    <t>准备环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务调研</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求理解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试与回归测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力看板设计、开发与单元测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务看板设计、开发与单元测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力看板、任务看板前台开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷修复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1541,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B36"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1553,18 +942,18 @@
     <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -1587,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -1599,491 +988,397 @@
         <v>6</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="K1:K12"/>
-  <sortState ref="A194:I248">
-    <sortCondition ref="I194:I248"/>
-    <sortCondition ref="D194:D248"/>
+  <sortState ref="A174:I228">
+    <sortCondition ref="I174:I228"/>
+    <sortCondition ref="D174:D228"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
@@ -2096,29 +1391,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -2135,466 +1429,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>143</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>134</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2609,28 +1845,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -2647,466 +1883,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>147</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>140</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>138</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3121,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3132,17 +2310,17 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -3159,466 +2337,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>150</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>163</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3636,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3647,17 +2767,17 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -3680,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -3692,448 +2812,390 @@
         <v>6</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4151,7 +3213,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4159,17 +3221,17 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -4192,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -4204,449 +3266,397 @@
         <v>6</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
@@ -4664,28 +3674,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -4702,466 +3712,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +4131,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5187,18 +4139,18 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -5215,393 +4167,393 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>92</v>
@@ -5610,72 +4562,20 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J17"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
@@ -5689,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5700,17 +4600,17 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -5727,466 +4627,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>101</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6204,28 +5046,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -6242,466 +5084,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6719,28 +5503,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -6757,466 +5541,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>145</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7232,29 +5958,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="20" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -7271,466 +5996,408 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>146</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
